--- a/Output_testing/R1_201907/Country/HKD/MN/RUSSIAN FED_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/RUSSIAN FED_201907_HKD_MN.xlsx
@@ -810,136 +810,437 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>8514.675740000001</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>54.28643299751303</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>10194.717082</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>46.61960015169947</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>15112.252337</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>51.77755516550911</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>7834.141228</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.74773911692218</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-4.234884402236105</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>2462.222006</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>15.69821964279771</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>4644.176013</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>21.23743376286995</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4843.369254</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>16.5943377031844</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1713.474303</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.31820561241407</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-41.98136682269311</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>6.740773</v>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>163.059379</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.7456570877661971</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1620.288509</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.551427794345728</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1053.14472</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.956455932673679</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-21.46267507765426</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>127.170142</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.810789935374241</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>35.731216</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.163395902942234</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>55.053329</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.1886235562890484</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>730.587519</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.825832370773215</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>580.144742</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.698788964738954</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1085.866505</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.965577943364783</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1250.02622</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.282836212701258</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>697.712138</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.608676898354991</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>2.022826085007923</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>346.787408</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.210988646383052</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>717.373812</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.280491258927555</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>786.662167</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.695259637025569</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>371.769163</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.455688900511677</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-2.436511441014499</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>372.691134</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.376141252169182</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>555.456458</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.540056557269281</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>656.146193</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.248086185109356</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>337.101339</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.226693601615162</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-21.55801430219063</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>205.719787</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.311593509166111</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>458.760752</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.097875071128234</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>478.472122</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.63933979790409</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>222.487237</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.469620110494239</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-18.39258419886142</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>263.456808</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.679703466339008</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>286.336988</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.309395423318916</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>390.92369</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.339381613879108</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>205.616249</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.3581802653012</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>14.00548438371936</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>60.013162</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3826217929329973</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>149.392563</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6831598657106877</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>217.489102</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7451605310434829</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>201.559207</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.331381826915632</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>41.74116328870581</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>2745.099636</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.50174310938721</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>3577.006796</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>16.35735697500268</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>3776.196003</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>12.93799180300886</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1771.505458</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.70152536402395</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-22.85983775989414</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1272,491 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1.591827463379316</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>13.002011</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>37.50181206687419</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>5.154937</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>35.1369403155479</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>3.503993</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>12.79823480432121</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>3.661591</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>21.68539960670538</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>6.017439</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>17.35615102170575</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.654975</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.91294043551253</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>36.21234662496664</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.7067532482616701</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>3.075903</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>8.87185345727938</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>3.451745</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>23.52768967874697</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>111.6654555711925</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>9.295458</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>33.95139604950867</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>7.34439</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>43.49640143246227</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>3.257684</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>9.396165957809373</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.611406</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.167448822472103</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>32.30803188864941</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.362598587200087</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>2.691158</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>7.76213014727222</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.570724</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.89015328890552</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>2.502935</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>9.141898922159292</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.6511854390498768</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2630027948373414</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.696252263821324</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.535722</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.956709372946969</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.003399219617446</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.7148153145479853</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.55722960754523</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>25.53285016456677</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.5788086271054516</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.465879262408331</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>132.8713278686749</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.541289</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.977042682161815</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>2.343015</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>13.87626760047881</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.2110275539730572</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.417763900050372</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>184.2928216062544</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.047930617357911</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.341194</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>7.943084806608828</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>1.13256</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>3.266652541246046</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.134729149157623</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-85.30091121000211</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>10.083092</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>36.82820683990315</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.347708</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>7.981663307877287</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>4.880747</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>14.0775805173492</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.092973275832101</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-79.90495740377312</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1788,437 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>8514.675740000001</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>54.38135926562128</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>10194.717082</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>46.65562480240348</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>15112.252337</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>51.83913355887196</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>7834.141228</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>51.79793543407488</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-4.234884402236105</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>2461.935096</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>15.72383741112587</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>4642.834819</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>21.24770678700418</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4842.236694</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>16.61018815106466</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1713.307827</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.32808378338327</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-41.96474794944841</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>6.740773</v>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>163.059379</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.7462332839593075</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1620.288509</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.558030037409408</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1053.14472</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.963203830730951</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-21.46267507765426</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>127.170142</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.8122076977604404</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>35.731216</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.16352216486449</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>55.053329</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.1888478839057066</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>730.587519</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.830513522381825</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>580.144742</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.70525673603199</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1085.866505</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.969415024986485</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1250.02622</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.2879297357958</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>697.712138</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.613147404916089</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>2.022826085007923</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>346.787408</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.214854822321348</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>717.373812</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.283026213138999</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>786.662167</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.698465075320469</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>371.769163</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.458070966684654</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-2.436511441014499</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>372.691134</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.380296217030785</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>555.456458</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.542019350814191</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>656.146193</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.250759805657444</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>337.101339</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.228853537877807</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-21.55801430219063</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>205.719787</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.313886986011529</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>458.760752</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.099496175050449</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>474.743717</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.628500001389192</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>222.487237</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.471045670691056</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-18.39258419886142</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>263.456808</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.682640627113512</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>286.336988</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.310407240507502</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>390.92369</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.340974523540809</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>205.616249</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.359497726672673</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>14.00548438371936</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>60.013162</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3832908525284524</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>149.392563</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.6836877680405476</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>217.489102</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7460467410654199</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>201.559207</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.332673293278717</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>41.74116328870581</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2718.007825</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.35931755142738</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>3561.462938</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>16.29886118923036</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>3746.386614</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.85112448597913</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1757.000944</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.61697482930807</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-23.2806409557457</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2250,445 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1.365611</v>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>3.061596</v>
+      </c>
+      <c r="F57" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2.906109</v>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1114.538986</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>24.28538561756033</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>2016.50985</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>37.57637670122865</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>3628.045911</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>46.07280025413943</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1622.597851</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>24.40072214353136</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1053.302835</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.95107290221297</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-14.67217095813644</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1382.46925</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>25.76143395276004</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1405.994113</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>17.8548142762863</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1530.521407</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>23.01607115029617</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>888.097205</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>19.35130431525572</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>7.206563783748998</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>COAL, WHETHER OR NOT PULVERIZED, BUT NOT AGGLOMERATED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>668.0335</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>12.44837878924332</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1100.1738</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>13.9711814502001</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1165.100435</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>17.52084902998095</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>434.4342</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.466157940621674</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-38.31625877963577</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>30.180944</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.3832698478752431</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>440.819484</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>6.629069388887579</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>309.52202</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.744368485308616</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>291.9698028191502</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>145.559238</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.712403690679615</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>273.612785</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.474627251012149</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>548.657098</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>8.250737785781928</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>182.293657</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.972110272937798</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-56.48938973558346</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>111.671029</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.080918500010218</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>256.289211</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.25463401383456</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>280.887404</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.224001341058006</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>75.19608700000001</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.638494474096948</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-33.64443798502968</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>132.304994</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.465419295620002</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>157.072625</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.994675881878152</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>97.143061</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.460843078383393</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>65.72123999999999</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.432041118985344</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-4.916692274438928</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>57.737128</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.07589460640376</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>85.72981799999999</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.088688753513882</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>110.587596</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.663022788335432</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>51.589725</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.12412071831186</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-23.55056794569516</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>6.313397</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.1176461319722325</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>12.852301</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.1632122391240259</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>43.429816</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.6531001334111175</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>50.974256</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.110709880119203</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>354.8878603627822</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>844.426196</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.73534433133641</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>921.58078</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>11.70321661758982</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>807.144124</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>12.13788092186252</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>363.670076</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>7.924234274589541</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-28.09852294325396</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
